--- a/NOVEDADES/clientes/NOVEDADES MARZO 2025.xlsx
+++ b/NOVEDADES/clientes/NOVEDADES MARZO 2025.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudio\Documents\NOVEDADES EMPLEADOR\02 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\marzo\NOVEDADES\clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB21E18-0A67-4045-A48D-14189B2DE2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$L$46</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -164,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -507,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +806,7 @@
       <c r="J46" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>